--- a/Marketing Analytics/Plano de Midia Projeto/ECPM.xlsx
+++ b/Marketing Analytics/Plano de Midia Projeto/ECPM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\fiap-mba-big-data-data-science\Marketing Analytics\Plano de Midia Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081CF616-C140-4413-95F1-EA37682FE3C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD02E453-220C-4AFE-8656-A46B53F46C0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7214F523-0DFC-4C4D-9C47-1FF6CFD4D03D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>CPM</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>DIA 5</t>
-  </si>
-  <si>
-    <t>DIA 6</t>
-  </si>
-  <si>
-    <t>DIA 7</t>
   </si>
   <si>
     <t>Médias</t>
@@ -295,7 +289,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -598,20 +592,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B97D0B7-7330-427B-B428-F92A271CCEA7}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G8" sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="2" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -621,10 +615,8 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="13" t="s">
         <v>1</v>
@@ -644,51 +636,37 @@
       <c r="G2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <f>[1]ROI!$A$7/7</f>
-        <v>952380.95238095243</v>
+        <f>[1]ROI!$A$7/5</f>
+        <v>1333333.3333333335</v>
       </c>
       <c r="C3" s="4">
-        <f>[1]ROI!$A$7/7</f>
-        <v>952380.95238095243</v>
+        <f>[1]ROI!$A$7/5</f>
+        <v>1333333.3333333335</v>
       </c>
       <c r="D3" s="4">
-        <f>[1]ROI!$A$7/7</f>
-        <v>952380.95238095243</v>
+        <f>[1]ROI!$A$7/5</f>
+        <v>1333333.3333333335</v>
       </c>
       <c r="E3" s="4">
-        <f>[1]ROI!$A$7/7</f>
-        <v>952380.95238095243</v>
+        <f>[1]ROI!$A$7/5</f>
+        <v>1333333.3333333335</v>
       </c>
       <c r="F3" s="4">
-        <f>[1]ROI!$A$7/7</f>
-        <v>952380.95238095243</v>
+        <f>[1]ROI!$A$7/5</f>
+        <v>1333333.3333333335</v>
       </c>
       <c r="G3" s="4">
-        <f>[1]ROI!$A$7/7</f>
-        <v>952380.95238095243</v>
-      </c>
-      <c r="H3" s="4">
-        <f>[1]ROI!$A$7/7</f>
-        <v>952380.95238095243</v>
-      </c>
-      <c r="I3" s="4">
-        <f>AVERAGE(B3:H3)</f>
-        <v>952380.95238095243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B3:F3)</f>
+        <v>1333333.3333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -708,54 +686,40 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="G4" s="5">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="H4" s="5">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="I4" s="5">
-        <f>AVERAGE(B4:H4)</f>
-        <v>4.9571428571428561E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B4:F4)</f>
+        <v>4.919999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="6">
         <f>B3*B4</f>
-        <v>4761.9047619047624</v>
+        <v>6666.6666666666679</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" ref="C5:D5" si="0">C3*C4</f>
-        <v>5238.0952380952376</v>
+        <v>7333.3333333333339</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>4666.666666666667</v>
+        <v>6533.3333333333339</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:H5" si="1">E3*E4</f>
-        <v>4380.9523809523807</v>
+        <f t="shared" ref="E5:F5" si="1">E3*E4</f>
+        <v>6133.3333333333339</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>4380.9523809523807</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="1"/>
-        <v>4666.666666666667</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="1"/>
-        <v>4952.3809523809523</v>
-      </c>
-      <c r="I5" s="4">
-        <f>AVERAGE(B5:H5)</f>
-        <v>4721.0884353741503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6133.3333333333339</v>
+      </c>
+      <c r="G5" s="4">
+        <f>AVERAGE(B5:F5)</f>
+        <v>6560.0000000000018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -763,66 +727,52 @@
         <v>1.5</v>
       </c>
       <c r="C6" s="8">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="D6" s="8">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="E6" s="8">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="F6" s="8">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="G6" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="I6" s="8">
-        <f>AVERAGE(B6:H6)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B6:F6)</f>
+        <v>1.5020000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="9">
         <f>B6*B3/1000</f>
-        <v>1428.5714285714287</v>
+        <v>2000.0000000000002</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" ref="C7:D7" si="2">C6*C3/1000</f>
-        <v>1333.3333333333333</v>
+        <v>1946.6666666666667</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="2"/>
-        <v>1523.8095238095241</v>
+        <v>2106.666666666667</v>
       </c>
       <c r="E7" s="9">
-        <f t="shared" ref="E7:H7" si="3">E6*E3/1000</f>
-        <v>1428.5714285714287</v>
+        <f t="shared" ref="E7:F7" si="3">E6*E3/1000</f>
+        <v>2026.666666666667</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="3"/>
-        <v>1333.3333333333333</v>
+        <v>1933.3333333333335</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" si="3"/>
-        <v>1428.5714285714287</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="shared" si="3"/>
-        <v>1523.8095238095241</v>
-      </c>
-      <c r="I7" s="9">
-        <f>AVERAGE(B7:H7)</f>
-        <v>1428.5714285714289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B7:F7)</f>
+        <v>2002.6666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -832,44 +782,34 @@
       </c>
       <c r="C8" s="11">
         <f t="shared" ref="C8:D8" si="4">C6</f>
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="4"/>
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="E8" s="11">
-        <f t="shared" ref="E8:H8" si="5">E6</f>
-        <v>1.5</v>
+        <f t="shared" ref="E8:F8" si="5">E6</f>
+        <v>1.52</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="5"/>
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="H8" s="11">
-        <f t="shared" si="5"/>
-        <v>1.6</v>
-      </c>
-      <c r="I8" s="11">
-        <f>AVERAGE(B8:H8)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B8:F8)</f>
+        <v>1.5020000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
@@ -879,10 +819,8 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>1</v>
@@ -902,51 +840,37 @@
       <c r="G11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="4">
-        <f>[1]ROI!$A$11/7</f>
-        <v>285714.28571428574</v>
+        <f>[1]ROI!$A$11/5</f>
+        <v>400000</v>
       </c>
       <c r="C12" s="4">
-        <f>[1]ROI!$A$11/7</f>
-        <v>285714.28571428574</v>
+        <f>[1]ROI!$A$11/5</f>
+        <v>400000</v>
       </c>
       <c r="D12" s="4">
-        <f>[1]ROI!$A$11/7</f>
-        <v>285714.28571428574</v>
+        <f>[1]ROI!$A$11/5</f>
+        <v>400000</v>
       </c>
       <c r="E12" s="4">
-        <f>[1]ROI!$A$11/7</f>
-        <v>285714.28571428574</v>
+        <f>[1]ROI!$A$11/5</f>
+        <v>400000</v>
       </c>
       <c r="F12" s="4">
-        <f>[1]ROI!$A$11/7</f>
-        <v>285714.28571428574</v>
+        <f>[1]ROI!$A$11/5</f>
+        <v>400000</v>
       </c>
       <c r="G12" s="4">
-        <f>[1]ROI!$A$11/7</f>
-        <v>285714.28571428574</v>
-      </c>
-      <c r="H12" s="4">
-        <f>[1]ROI!$A$11/7</f>
-        <v>285714.28571428574</v>
-      </c>
-      <c r="I12" s="4">
-        <f>AVERAGE(B12:H12)</f>
-        <v>285714.28571428574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B12:F12)</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -966,54 +890,40 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="G13" s="5">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="H13" s="5">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="I13" s="5">
-        <f>AVERAGE(B13:H13)</f>
-        <v>4.9571428571428561E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B13:F13)</f>
+        <v>4.919999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="6">
         <f>B12*B13</f>
-        <v>1428.5714285714287</v>
+        <v>2000</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" ref="C14:H14" si="6">C12*C13</f>
-        <v>1571.4285714285716</v>
+        <f t="shared" ref="C14:F14" si="6">C12*C13</f>
+        <v>2200</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="6"/>
-        <v>1400</v>
+        <v>1960</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="6"/>
-        <v>1314.2857142857144</v>
+        <v>1840</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="6"/>
-        <v>1314.2857142857144</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="6"/>
-        <v>1485.7142857142858</v>
-      </c>
-      <c r="I14" s="4">
-        <f>AVERAGE(B14:H14)</f>
-        <v>1416.3265306122451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1840</v>
+      </c>
+      <c r="G14" s="4">
+        <f>AVERAGE(B14:F14)</f>
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1033,54 +943,40 @@
         <v>0.95</v>
       </c>
       <c r="G15" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1.02</v>
-      </c>
-      <c r="I15" s="8">
-        <f>AVERAGE(B15:H15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B15:F15)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="9">
         <f>B15*B14</f>
-        <v>1428.5714285714287</v>
+        <v>2000</v>
       </c>
       <c r="C16" s="9">
         <f t="shared" ref="C16:D16" si="7">C15*C14</f>
-        <v>1728.5714285714289</v>
+        <v>2420</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="7"/>
-        <v>1470</v>
+        <v>2058</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" ref="E16:H16" si="8">E15*E14</f>
-        <v>1182.8571428571431</v>
+        <f t="shared" ref="E16:F16" si="8">E15*E14</f>
+        <v>1656</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="8"/>
-        <v>1248.5714285714287</v>
+        <v>1748</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="8"/>
-        <v>1372</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" si="8"/>
-        <v>1515.4285714285716</v>
-      </c>
-      <c r="I16" s="9">
-        <f>AVERAGE(B16:H16)</f>
-        <v>1420.8571428571429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B16:F16)</f>
+        <v>1976.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>8</v>
       </c>
@@ -1090,37 +986,29 @@
       </c>
       <c r="C17" s="11">
         <f t="shared" ref="C17:D17" si="9">C16/C12*1000</f>
-        <v>6.0500000000000007</v>
+        <v>6.05</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="9"/>
-        <v>5.1449999999999996</v>
+        <v>5.1450000000000005</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" ref="E17:H17" si="10">E16/E12*1000</f>
-        <v>4.1400000000000006</v>
+        <f t="shared" ref="E17:F17" si="10">E16/E12*1000</f>
+        <v>4.1399999999999997</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="10"/>
         <v>4.37</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="10"/>
-        <v>4.8019999999999996</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="10"/>
-        <v>5.3039999999999994</v>
-      </c>
-      <c r="I17" s="11">
-        <f>AVERAGE(B17:H17)</f>
-        <v>4.9729999999999999</v>
+        <f>AVERAGE(B17:F17)</f>
+        <v>4.9410000000000007</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
